--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +410,35 @@
         <v>Date</v>
       </c>
       <c r="C1" t="str">
+        <v>Clocked In</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Clocked Out</v>
+      </c>
+      <c r="E1" t="str">
         <v>Hours</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Billy Bob</v>
+        <v>Andrew Bui</v>
       </c>
       <c r="B2" t="str">
-        <v>7/30/2022</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Billy Bob</v>
-      </c>
-      <c r="B3" t="str">
-        <v>7/30/2022</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Andrew Bui</v>
-      </c>
-      <c r="B4" t="str">
-        <v>7/30/2022</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Andrew Bui</v>
-      </c>
-      <c r="B5" t="str">
-        <v>7/30/2022</v>
-      </c>
-      <c r="C5">
+        <v>8/17/2022</v>
+      </c>
+      <c r="C2" t="str">
+        <v>10:17:24 PM</v>
+      </c>
+      <c r="D2" t="str">
+        <v>10:17:25 PM</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>